--- a/jan7to21v3.xlsx
+++ b/jan7to21v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="460" windowWidth="28560" windowHeight="16560"/>
+    <workbookView xWindow="6060" yWindow="460" windowWidth="28560" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="bbsk8r1@gmail.com" sheetId="1" r:id="rId1"/>
@@ -684,14 +684,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="5" max="5" width="107.1640625" customWidth="1"/>
+    <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -822,7 +824,7 @@
         <v>81</v>
       </c>
       <c r="H5">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> LEN(E5)</f>
         <v>770</v>
       </c>
     </row>

--- a/jan7to21v3.xlsx
+++ b/jan7to21v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6060" yWindow="460" windowWidth="28560" windowHeight="16560"/>
+    <workbookView xWindow="200" yWindow="740" windowWidth="28560" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="bbsk8r1@gmail.com" sheetId="1" r:id="rId1"/>
@@ -686,7 +686,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/jan7to21v3.xlsx
+++ b/jan7to21v3.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="200" yWindow="740" windowWidth="28560" windowHeight="16560"/>
+    <workbookView xWindow="2140" yWindow="480" windowWidth="28560" windowHeight="16560"/>
   </bookViews>
   <sheets>
     <sheet name="bbsk8r1@gmail.com" sheetId="1" r:id="rId1"/>
@@ -686,13 +686,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="5" max="5" width="107.1640625" customWidth="1"/>
+    <col min="5" max="5" width="83.83203125" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" customWidth="1"/>
     <col min="7" max="7" width="22.6640625" customWidth="1"/>
   </cols>
